--- a/test-1-excel.xlsx
+++ b/test-1-excel.xlsx
@@ -16,6 +16,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
+    <t>利益最大化-平均</t>
+  </si>
+  <si>
+    <t>提供単価最小化-ペナルティ-10000.0-profit40%</t>
+  </si>
+  <si>
+    <t>提供単価最小化-ペナルティ-10000.0-profit50%</t>
+  </si>
+  <si>
+    <t>提供単価最小化-ペナルティ-10000.0-profit60%</t>
+  </si>
+  <si>
     <t>総利益</t>
   </si>
   <si>
@@ -44,18 +56,6 @@
   </si>
   <si>
     <t>取引後稼働率</t>
-  </si>
-  <si>
-    <t>利益最大化-平均</t>
-  </si>
-  <si>
-    <t>提供単価最小化-ペナルティ-10000.0-profit40%</t>
-  </si>
-  <si>
-    <t>提供単価最小化-ペナルティ-10000.0-profit50%</t>
-  </si>
-  <si>
-    <t>提供単価最小化-ペナルティ-10000.0-profit60%</t>
   </si>
 </sst>
 </file>
@@ -108,24 +108,24 @@
   <sheetData>
     <row r="1">
       <c r="C1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>4447.1086372493055</v>
@@ -142,7 +142,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1166.1635319883512</v>
@@ -159,10 +159,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1285.068112688918</v>
@@ -179,7 +179,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>184.3571805466079</v>
@@ -196,10 +196,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>222.35543186246528</v>
@@ -216,7 +216,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>58.30817659941755</v>
@@ -233,10 +233,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -253,7 +253,7 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -270,10 +270,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0.6050958569522061</v>
@@ -290,7 +290,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>0.15408256122617142</v>
@@ -307,10 +307,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>93.90644789830786</v>
@@ -327,7 +327,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>12.504843346367048</v>
@@ -344,10 +344,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0.6467918913739135</v>
@@ -364,7 +364,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>0.005259457529273088</v>
@@ -381,10 +381,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0.859204196768166</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>0.05324122952906391</v>
@@ -431,24 +431,24 @@
   <sheetData>
     <row r="1">
       <c r="C1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>4881.832236279053</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>341.7270929470389</v>
@@ -482,10 +482,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1182.579423407956</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>116.97318320624005</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>244.09161181395265</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>17.086354647351957</v>
@@ -556,10 +556,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0.5959477982619565</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>0.045501442707633795</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>91.81121835065191</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>6.580452293997905</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0.6012468088533544</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>0.00435300042882259</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0.8368910593518226</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>0.018550037947327083</v>
@@ -754,24 +754,24 @@
   <sheetData>
     <row r="1">
       <c r="C1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>4734.2228187778255</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>722.7571118708147</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>996.8000636479686</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>203.48515852421107</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>236.71114093889128</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>36.13785559354075</v>
@@ -879,10 +879,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>0.4732996403765206</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>0.07465323600946101</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>89.71768031990291</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>6.095176574170599</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0.5510438808769453</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>0.004227256777845788</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>0.7626823927030981</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
         <v>0.035315126856587095</v>
